--- a/0755 Fantasy Football 2023.xlsx
+++ b/0755 Fantasy Football 2023.xlsx
@@ -3914,7 +3914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3945,30 +3945,50 @@
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>Team 1 LPI</t>
+          <t>LPI 1</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
+          <t>Total Points 1</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Record 1</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
           <t>Team 2</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>Seed 2</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>Score 2</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>Team 2 LPI</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>LPI 2</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>Total Points 2</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>Record 2</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>Winner</t>
         </is>
@@ -3994,27 +4014,45 @@
       <c r="E2" t="n">
         <v>19</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="n">
+        <v>1590.46</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9-3-0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Bye</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>3rd World Immigrant</t>
         </is>
@@ -4040,27 +4078,45 @@
       <c r="E3" t="n">
         <v>-9</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="n">
+        <v>1413.88</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9-4-0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bye</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t xml:space="preserve">Baby Chark, Juju Juju </t>
         </is>
@@ -4086,21 +4142,37 @@
       <c r="E4" t="n">
         <v>28</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="n">
+        <v>1595</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>8-5-0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>MOTHER MAY I</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>5</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>62.76</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>-22</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="L4" t="n">
+        <v>1338.94</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>8-5-0</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
         <is>
           <t>Arm Pitts</t>
         </is>
@@ -4126,21 +4198,37 @@
       <c r="E5" t="n">
         <v>21</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="n">
+        <v>1574.16</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>8-5-0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Chicken Fried Chicken Meal</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>6</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>85.44</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>-37</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="L5" t="n">
+        <v>1363.08</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>7-5-0</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t>Chicken Fried Chicken Meal</t>
         </is>
@@ -4166,21 +4254,37 @@
       <c r="E6" t="n">
         <v>26</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="n">
+        <v>1590.46</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>9-3-0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Arm Pitts</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>3</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>100.4</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>34</v>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="L6" t="n">
+        <v>1595</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>8-5-0</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>3rd World Immigrant</t>
         </is>
@@ -4206,21 +4310,37 @@
       <c r="E7" t="n">
         <v>-13</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="n">
+        <v>1413.88</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>9-4-0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Chicken Fried Chicken Meal</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>6</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>71.40000000000001</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>-44</v>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="L7" t="n">
+        <v>1363.08</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>7-5-0</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t xml:space="preserve">Baby Chark, Juju Juju </t>
         </is>
@@ -4246,21 +4366,37 @@
       <c r="E8" t="n">
         <v>28</v>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="n">
+        <v>1590.46</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>9-3-0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Baby Chark, Juju Juju </t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>2</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>112</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>-13</v>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="L8" t="n">
+        <v>1413.88</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>9-4-0</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>3rd World Immigrant</t>
         </is>
